--- a/doc/Image_tool_design.xlsx
+++ b/doc/Image_tool_design.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Block" sheetId="1" r:id="rId2"/>
     <sheet name="Image" sheetId="4" r:id="rId3"/>
     <sheet name="Option" sheetId="6" r:id="rId4"/>
+    <sheet name="需求" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>目录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,6 +33,78 @@
   </si>
   <si>
     <t>Option Design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文言编码转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1M(2017)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -79,14 +152,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -670,51 +806,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C7"/>
+  <dimension ref="B4:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" location="Block!A1" display="Block"/>
+    <hyperlink ref="C8" location="需求!A1" display="需求"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -765,4 +955,219 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>